--- a/update-input/ig/StructureDefinition-additional-information.xlsx
+++ b/update-input/ig/StructureDefinition-additional-information.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/additional-information</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AdditionalInformation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:27:05+00:00</t>
+    <t>2024-03-25T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -915,8 +915,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -935,7 +935,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -954,10 +954,6 @@
   </si>
   <si>
     <t>effectiveDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Date and time of recording of the additional information</t>
@@ -1041,6 +1037,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>obs-7
@@ -5383,7 +5382,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5505,7 +5504,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>92</v>
@@ -5520,10 +5519,10 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>288</v>
@@ -5616,10 +5615,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5642,16 +5641,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5701,7 +5700,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5719,16 +5718,16 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5736,10 +5735,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5762,17 +5761,17 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5821,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5836,19 +5835,19 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5856,10 +5855,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5882,19 +5881,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5938,10 +5937,10 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5978,7 @@
         <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>330</v>
@@ -6007,16 +6006,16 @@
         <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6065,7 +6064,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6300,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>189</v>
@@ -10100,19 +10099,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>540</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
